--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-no-consent-habilitation</t>
+    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-healthcareservice-no-consent-habilitation</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-07</t>
+    <t>2023-03-17T09:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR qui permet d'identifier les offres pour lesquelles un établissement est autorisé par le directeur général de l’ARS après avis du préfet, à prendre en charge des patients sans leur consentement.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-healthcareservice-no-consent-habilitation</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-no-consent-habilitation</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:29:51+00:00</t>
+    <t>2023-04-11T09:33:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:07+00:00</t>
+    <t>2023-04-11T13:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:02:58+00:00</t>
+    <t>2023-04-12T12:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T12:26:01+00:00</t>
+    <t>2023-04-12T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:42:58+00:00</t>
+    <t>2023-04-12T15:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:04:36+00:00</t>
+    <t>2023-04-12T15:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:32:06+00:00</t>
+    <t>2023-04-12T16:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:09:30+00:00</t>
+    <t>2023-04-19T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T09:29:32+00:00</t>
+    <t>2023-04-27T07:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T07:56:45+00:00</t>
+    <t>2023-04-28T06:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:37:34+00:00</t>
+    <t>2023-04-28T06:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:38:38+00:00</t>
+    <t>2023-05-10T10:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
